--- a/biology/Botanique/Jardin_zen_d'Erik_Borja/Jardin_zen_d'Erik_Borja.xlsx
+++ b/biology/Botanique/Jardin_zen_d'Erik_Borja/Jardin_zen_d'Erik_Borja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_zen_d%27Erik_Borja</t>
+          <t>Jardin_zen_d'Erik_Borja</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin zen d'Erik Borja est un jardin situé à Beaumont-Monteux (Drôme).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_zen_d%27Erik_Borja</t>
+          <t>Jardin_zen_d'Erik_Borja</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Erik Borja est un artiste-plasticien et sculpteur, qui est devenu une référence [réf. nécessaire]dans l'art des jardins d'inspiration japonaise en France.  
 Le jardin zen a été créé en 1973 autour d'une ancienne bergerie rénovée par Erik Borja et son compagnon Frédéric Ditis.
@@ -522,7 +536,7 @@
 Le jardin méditerranéen n'est pas d'inspiration japonaise. Erik Borja est originaire d'Algérie, où les paysans utilisaient les pierres antiques qu'ils trouvaient en réemploi. Suivant cette même idée, il a réutilisé les pierres autour de la bergerie pour créer un jardin, orienté au sud, qui supporte la sécheresse. Celui-ci contient des plantes aux fragrances méditerranéennes.
 Le jardin de promenade est orienté vers la détente, et centré sur deux bassins reliés par une cascade.
 Le jardin du Dragon tient son inspiration de la rivière locale, l'Herbasse, qui coule sur son côté. Celle-ci, comme un dragon indomptable, est déjà sortie deux fois de son lit, détruisant le jardin.
-Le jardin zen d'Erik Borja fait partie des jardins remarquables de France[1].
+Le jardin zen d'Erik Borja fait partie des jardins remarquables de France.
 </t>
         </is>
       </c>
